--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N2">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q2">
-        <v>0.07040896707677778</v>
+        <v>0.08208371681433334</v>
       </c>
       <c r="R2">
-        <v>0.633680703691</v>
+        <v>0.7387534513289999</v>
       </c>
       <c r="S2">
-        <v>0.0006852042733222778</v>
+        <v>0.0007669007807489041</v>
       </c>
       <c r="T2">
-        <v>0.000685204273322278</v>
+        <v>0.0007669007807489041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q3">
         <v>2.502598091595778</v>
@@ -638,10 +638,10 @@
         <v>22.523382824362</v>
       </c>
       <c r="S3">
-        <v>0.02435472324000582</v>
+        <v>0.0233815487995834</v>
       </c>
       <c r="T3">
-        <v>0.02435472324000582</v>
+        <v>0.0233815487995834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N4">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O4">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P4">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q4">
-        <v>0.0002415028034444445</v>
+        <v>0.007777125812444444</v>
       </c>
       <c r="R4">
-        <v>0.002173525231</v>
+        <v>0.069994132312</v>
       </c>
       <c r="S4">
-        <v>2.350251108768524E-06</v>
+        <v>7.266098672209035E-05</v>
       </c>
       <c r="T4">
-        <v>2.350251108768524E-06</v>
+        <v>7.266098672209036E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N5">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q5">
-        <v>0.1462034306803333</v>
+        <v>0.2397859002653334</v>
       </c>
       <c r="R5">
-        <v>1.315830876123</v>
+        <v>2.158073102388</v>
       </c>
       <c r="S5">
-        <v>0.001422818990758676</v>
+        <v>0.0022402980915449</v>
       </c>
       <c r="T5">
-        <v>0.001422818990758677</v>
+        <v>0.0022402980915449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N6">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q6">
-        <v>0.001297058203888889</v>
+        <v>0.001745791839333333</v>
       </c>
       <c r="R6">
-        <v>0.011673523835</v>
+        <v>0.015712126554</v>
       </c>
       <c r="S6">
-        <v>1.262267948176606E-05</v>
+        <v>1.631077607801515E-05</v>
       </c>
       <c r="T6">
-        <v>1.262267948176606E-05</v>
+        <v>1.631077607801516E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N7">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q7">
-        <v>2.588768959877334</v>
+        <v>3.018021525136</v>
       </c>
       <c r="R7">
-        <v>23.298920638896</v>
+        <v>27.162193726224</v>
       </c>
       <c r="S7">
-        <v>0.02519331880011434</v>
+        <v>0.02819710356414609</v>
       </c>
       <c r="T7">
-        <v>0.02519331880011434</v>
+        <v>0.02819710356414609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,10 +936,10 @@
         <v>46.952962</v>
       </c>
       <c r="O8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q8">
         <v>92.01453348274134</v>
@@ -948,10 +948,10 @@
         <v>828.130801344672</v>
       </c>
       <c r="S8">
-        <v>0.8954647989847426</v>
+        <v>0.8596835073608456</v>
       </c>
       <c r="T8">
-        <v>0.8954647989847427</v>
+        <v>0.8596835073608458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,34 +986,34 @@
         <v>0.9735222805653228</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N9">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O9">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P9">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q9">
-        <v>0.008879479237333334</v>
+        <v>0.2859462755413333</v>
       </c>
       <c r="R9">
-        <v>0.079915313136</v>
+        <v>2.573516479872</v>
       </c>
       <c r="S9">
-        <v>8.641310007662284E-05</v>
+        <v>0.002671570324488489</v>
       </c>
       <c r="T9">
-        <v>8.641310007662284E-05</v>
+        <v>0.002671570324488489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N10">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q10">
-        <v>5.375549718832001</v>
+        <v>8.816352822592002</v>
       </c>
       <c r="R10">
-        <v>48.379947469488</v>
+        <v>79.34717540332801</v>
       </c>
       <c r="S10">
-        <v>0.05231364401047853</v>
+        <v>0.08237039117389196</v>
       </c>
       <c r="T10">
-        <v>0.05231364401047853</v>
+        <v>0.08237039117389196</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,34 +1110,34 @@
         <v>0.9735222805653228</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N11">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O11">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P11">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q11">
-        <v>0.04768972130666667</v>
+        <v>0.064188581536</v>
       </c>
       <c r="R11">
-        <v>0.42920749176</v>
+        <v>0.577697233824</v>
       </c>
       <c r="S11">
-        <v>0.0004641056699105311</v>
+        <v>0.0005997081419506002</v>
       </c>
       <c r="T11">
-        <v>0.0004641056699105312</v>
+        <v>0.0005997081419506003</v>
       </c>
     </row>
   </sheetData>
